--- a/published-data/fonds-solidarite/fds-2022-06-03/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-03/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -5500,13 +5500,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>8951</v>
+        <v>8952</v>
       </c>
       <c r="D100" t="n">
         <v>1562</v>
       </c>
       <c r="E100" t="n">
-        <v>33012928</v>
+        <v>33017052</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -18097,13 +18097,13 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>14357</v>
+        <v>14361</v>
       </c>
       <c r="D347" t="n">
         <v>2812</v>
       </c>
       <c r="E347" t="n">
-        <v>36188431</v>
+        <v>36190509</v>
       </c>
       <c r="F347" t="inlineStr">
         <is>
@@ -18658,13 +18658,13 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="D358" t="n">
         <v>150</v>
       </c>
       <c r="E358" t="n">
-        <v>4258463</v>
+        <v>4266554</v>
       </c>
       <c r="F358" t="inlineStr">
         <is>
@@ -19525,13 +19525,13 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="D375" t="n">
         <v>273</v>
       </c>
       <c r="E375" t="n">
-        <v>48247116</v>
+        <v>48307762</v>
       </c>
       <c r="F375" t="inlineStr">
         <is>
@@ -22534,13 +22534,13 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>163589</v>
+        <v>163592</v>
       </c>
       <c r="D434" t="n">
         <v>25456</v>
       </c>
       <c r="E434" t="n">
-        <v>711262647</v>
+        <v>711297532</v>
       </c>
       <c r="F434" t="inlineStr">
         <is>
@@ -22585,13 +22585,13 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>94614</v>
+        <v>94621</v>
       </c>
       <c r="D435" t="n">
         <v>12852</v>
       </c>
       <c r="E435" t="n">
-        <v>652977346</v>
+        <v>653186907</v>
       </c>
       <c r="F435" t="inlineStr">
         <is>
@@ -22687,13 +22687,13 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>30962</v>
+        <v>30964</v>
       </c>
       <c r="D437" t="n">
         <v>3832</v>
       </c>
       <c r="E437" t="n">
-        <v>595609229</v>
+        <v>595749344</v>
       </c>
       <c r="F437" t="inlineStr">
         <is>
@@ -22738,13 +22738,13 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>10254</v>
+        <v>10262</v>
       </c>
       <c r="D438" t="n">
         <v>1383</v>
       </c>
       <c r="E438" t="n">
-        <v>482232217</v>
+        <v>482761788</v>
       </c>
       <c r="F438" t="inlineStr">
         <is>
@@ -22942,13 +22942,13 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D442" t="n">
         <v>58</v>
       </c>
       <c r="E442" t="n">
-        <v>47465741</v>
+        <v>47635718</v>
       </c>
       <c r="F442" t="inlineStr">
         <is>
@@ -23146,13 +23146,13 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>53188</v>
+        <v>53190</v>
       </c>
       <c r="D446" t="n">
         <v>8886</v>
       </c>
       <c r="E446" t="n">
-        <v>117894058</v>
+        <v>117904483</v>
       </c>
       <c r="F446" t="inlineStr">
         <is>
@@ -23758,13 +23758,13 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>24145</v>
+        <v>24146</v>
       </c>
       <c r="D458" t="n">
         <v>4651</v>
       </c>
       <c r="E458" t="n">
-        <v>133131981</v>
+        <v>133141981</v>
       </c>
       <c r="F458" t="inlineStr">
         <is>
@@ -23809,13 +23809,13 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>7779</v>
+        <v>7780</v>
       </c>
       <c r="D459" t="n">
         <v>1537</v>
       </c>
       <c r="E459" t="n">
-        <v>64546730</v>
+        <v>64556730</v>
       </c>
       <c r="F459" t="inlineStr">
         <is>
@@ -23911,13 +23911,13 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="D461" t="n">
         <v>205</v>
       </c>
       <c r="E461" t="n">
-        <v>50010716</v>
+        <v>50024777</v>
       </c>
       <c r="F461" t="inlineStr">
         <is>
@@ -25696,13 +25696,13 @@
         </is>
       </c>
       <c r="C496" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D496" t="n">
         <v>3</v>
       </c>
       <c r="E496" t="n">
-        <v>1571346</v>
+        <v>1771346</v>
       </c>
       <c r="F496" t="inlineStr">
         <is>
@@ -42424,13 +42424,13 @@
         </is>
       </c>
       <c r="C824" t="n">
-        <v>28686</v>
+        <v>28687</v>
       </c>
       <c r="D824" t="n">
         <v>5058</v>
       </c>
       <c r="E824" t="n">
-        <v>166440785</v>
+        <v>166443035</v>
       </c>
       <c r="F824" t="inlineStr">
         <is>
@@ -43138,13 +43138,13 @@
         </is>
       </c>
       <c r="C838" t="n">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="D838" t="n">
         <v>128</v>
       </c>
       <c r="E838" t="n">
-        <v>12073147</v>
+        <v>12103147</v>
       </c>
       <c r="F838" t="inlineStr">
         <is>
@@ -43597,13 +43597,13 @@
         </is>
       </c>
       <c r="C847" t="n">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="D847" t="n">
         <v>396</v>
       </c>
       <c r="E847" t="n">
-        <v>38040948</v>
+        <v>38150614</v>
       </c>
       <c r="F847" t="inlineStr">
         <is>
